--- a/20170911/商城项目分组.xlsx
+++ b/20170911/商城项目分组.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101">
   <si>
     <t>地区</t>
   </si>
@@ -46,7 +46,10 @@
     <t>刘兆晖、江山</t>
   </si>
   <si>
-    <t>https://github.com/zhaohuiL/say_me_beautiful.git</t>
+    <t>https://github.com/say-me-beautiful/say-it.git</t>
+  </si>
+  <si>
+    <t>http://h6.duchengjiu.top/1707_zhangjiaming/</t>
   </si>
   <si>
     <t>邱应豪</t>
@@ -80,6 +83,9 @@
     <t xml:space="preserve">https://github.com/Y-J-H/four.git </t>
   </si>
   <si>
+    <t>http://h6.duchengjiu.top/1707_yejiahui/</t>
+  </si>
+  <si>
     <t>关帅杰</t>
   </si>
   <si>
@@ -89,6 +95,9 @@
     <t>https://github.com/DWarrior222/ShopProject.git</t>
   </si>
   <si>
+    <t>http://h6.duchengjiu.top/1707_lishiqiang</t>
+  </si>
+  <si>
     <t>马东旭</t>
   </si>
   <si>
@@ -98,6 +107,9 @@
     <t>https://github.com/lion0010/online-mall.git</t>
   </si>
   <si>
+    <t>http://h6.duchengjiu.top/1707_madongxu/</t>
+  </si>
+  <si>
     <t>李佳航</t>
   </si>
   <si>
@@ -125,6 +137,9 @@
     <t>https://github.com/MisterPrince/WebProject.git</t>
   </si>
   <si>
+    <t>http://h6.duchengjiu.top/1707_wangzhiqiang/</t>
+  </si>
+  <si>
     <t>张凤宽</t>
   </si>
   <si>
@@ -216,6 +231,9 @@
   </si>
   <si>
     <t>https://github.com/YexChen/NiangCang</t>
+  </si>
+  <si>
+    <t>http://h6.duchengjiu.top/1707_chenyingxuan/template/mainpage.html</t>
   </si>
   <si>
     <t>董金鑫</t>
@@ -238,6 +256,69 @@
   </si>
   <si>
     <t>西安</t>
+  </si>
+  <si>
+    <t>高嘉乐</t>
+  </si>
+  <si>
+    <t>乔成，任笑梅</t>
+  </si>
+  <si>
+    <t>https://github.com/793654672/web_1701-</t>
+  </si>
+  <si>
+    <t>蒲超</t>
+  </si>
+  <si>
+    <t>首欣颐，杨雄</t>
+  </si>
+  <si>
+    <t>https://github.com/Dylan1201/web-1707-puchao</t>
+  </si>
+  <si>
+    <t>http://www.puchao.cc/suning/</t>
+  </si>
+  <si>
+    <t>刘亚卫</t>
+  </si>
+  <si>
+    <t>高浩，李龙金</t>
+  </si>
+  <si>
+    <t>https://github.com/Angela894/web-mall</t>
+  </si>
+  <si>
+    <t>http://www.liuyawei.top/gome/</t>
+  </si>
+  <si>
+    <t>http://h6.duchengjiu.top/1707_liuyawei/</t>
+  </si>
+  <si>
+    <t>杨博</t>
+  </si>
+  <si>
+    <t>李春阳</t>
+  </si>
+  <si>
+    <t>https://github.com/yangbo12138/yangbo12138</t>
+  </si>
+  <si>
+    <t>薛宇峰</t>
+  </si>
+  <si>
+    <t>杨涵翔</t>
+  </si>
+  <si>
+    <t>https://github.com/xyf199528/web1707--</t>
+  </si>
+  <si>
+    <t>张桥宽</t>
+  </si>
+  <si>
+    <t>梁耀臣</t>
+  </si>
+  <si>
+    <t>https://github.com/zhnagqiaokuan/Web_project </t>
   </si>
 </sst>
 </file>
@@ -245,12 +326,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,15 +342,44 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,6 +390,43 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -292,6 +439,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -299,6 +454,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -307,119 +505,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -428,187 +529,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,39 +726,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -672,11 +746,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -696,21 +783,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -719,6 +791,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -727,10 +834,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -739,159 +846,192 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -953,6 +1093,131 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\Administrator\AppData\Roaming\Tencent\QQ\Temp\%W@GJ$ACOF(TYDYECOKVDYB.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4076700" y="5353050"/>
+          <a:ext cx="190500" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="C:\Users\Administrator\AppData\Roaming\Tencent\QQ\Temp\%W@GJ$ACOF(TYDYECOKVDYB.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4076700" y="4667250"/>
+          <a:ext cx="190500" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="C:\Users\Administrator\AppData\Roaming\Tencent\QQ\Temp\%W@GJ$ACOF(TYDYECOKVDYB.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4076700" y="5181600"/>
+          <a:ext cx="190500" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1213,10 +1478,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:K25"/>
+  <dimension ref="A2:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1241,7 +1506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1254,10 +1519,13 @@
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1"/>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
@@ -1266,355 +1534,534 @@
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" ht="30" customHeight="1" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" ht="30" customHeight="1" spans="1:5">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="D7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="6">
+        <v>10</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="4"/>
-      <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="C8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="6">
+        <v>9</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="4"/>
-      <c r="B9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="6">
+        <v>8</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="4"/>
+      <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="6">
+        <v>7</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="4"/>
+      <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="6">
+        <v>6</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="4"/>
-      <c r="B12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="6">
+        <v>5</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="4"/>
+      <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="6">
+        <v>4</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="4"/>
+      <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
+        <v>44</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="6">
+        <v>3</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="4"/>
-      <c r="B15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="6">
+        <v>2</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="4"/>
+      <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1"/>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="4"/>
+        <v>59</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1"/>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="E19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1"/>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="E20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1"/>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="4"/>
-      <c r="B22" t="s">
-        <v>64</v>
+        <v>68</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1"/>
+      <c r="B22" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="4"/>
+        <v>71</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1"/>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" ht="27" spans="1:4">
-      <c r="A24" s="4"/>
+        <v>74</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" ht="27" spans="1:5">
+      <c r="A24" s="1"/>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>73</v>
+        <v>77</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="10"/>
+      <c r="B26" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="10"/>
+      <c r="B27" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27">
+        <v>6</v>
+      </c>
+      <c r="F27" t="s">
+        <v>90</v>
+      </c>
+      <c r="J27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="10"/>
+      <c r="B28" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="10"/>
+      <c r="B29" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="10"/>
+      <c r="B30" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A16"/>
     <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A25:A30"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" display="https://github.com/qiuyinghao/liangcang.git "/>
-    <hyperlink ref="D4" r:id="rId2" display="https://github.com/zhaohuiL/say_me_beautiful.git"/>
-    <hyperlink ref="D6" r:id="rId3" display="https://github.com/liangcang0911/liangcang.git &#10;"/>
-    <hyperlink ref="D3" r:id="rId4" display="https://github.com/lskword/ShangChengFist.git "/>
-    <hyperlink ref="D7" r:id="rId5" display="https://github.com/Y-J-H/four.git " tooltip="https://github.com/Y-J-H/four.git "/>
-    <hyperlink ref="D8" r:id="rId6" display="https://github.com/DWarrior222/ShopProject.git"/>
-    <hyperlink ref="D9" r:id="rId7" display="https://github.com/lion0010/online-mall.git"/>
-    <hyperlink ref="D10" r:id="rId8" display="https://github.com/jiushishuai/shop-item.git"/>
-    <hyperlink ref="D11" r:id="rId9" display="https://github.com/96weibin/HarbinTeamProject.git"/>
-    <hyperlink ref="D12" r:id="rId10" display="https://github.com/MisterPrince/WebProject.git"/>
-    <hyperlink ref="D13" r:id="rId11" display="https://github.com/FKzhangye/Mall-project.git"/>
-    <hyperlink ref="D14" r:id="rId12" display="https://github.com/sunlight-chen/shop-center.git"/>
-    <hyperlink ref="D16" r:id="rId13" display="https://github.com/Mannerbu/Wbi.git"/>
-    <hyperlink ref="D15" r:id="rId14" display="https://github.com/yabqi/shop_fsw.git"/>
-    <hyperlink ref="D23" r:id="rId15" display="https://github.com/djx474068077/liangcang.git" tooltip="https://github.com/djx474068077/liangcang.git"/>
-    <hyperlink ref="D18" r:id="rId16" display="https://github.com/Superworwolf/New-Shop.gi" tooltip="https://github.com/Superworwolf/New-Shop.gi"/>
-    <hyperlink ref="D24" r:id="rId17" display="https://github.com/gc18773375617/jeans.git&#10;" tooltip="https://github.com/gc18773375617/jeans.git&#10;"/>
-    <hyperlink ref="D17" r:id="rId18" display="https://github.com/chenzhaohua11/item01" tooltip="https://github.com/chenzhaohua11/item01"/>
-    <hyperlink ref="D22" r:id="rId19" display="https://github.com/YexChen/NiangCang"/>
+    <hyperlink ref="D5" r:id="rId2" display="https://github.com/qiuyinghao/liangcang.git "/>
+    <hyperlink ref="D4" r:id="rId3" display="https://github.com/say-me-beautiful/say-it.git" tooltip="https://github.com/say-me-beautiful/say-it.git"/>
+    <hyperlink ref="D6" r:id="rId4" display="https://github.com/liangcang0911/liangcang.git &#10;"/>
+    <hyperlink ref="D3" r:id="rId5" display="https://github.com/lskword/ShangChengFist.git " tooltip="https://github.com/lskword/ShangChengFist.git "/>
+    <hyperlink ref="D7" r:id="rId6" display="https://github.com/Y-J-H/four.git " tooltip="https://github.com/Y-J-H/four.git "/>
+    <hyperlink ref="D8" r:id="rId7" display="https://github.com/DWarrior222/ShopProject.git"/>
+    <hyperlink ref="D9" r:id="rId8" display="https://github.com/lion0010/online-mall.git"/>
+    <hyperlink ref="D10" r:id="rId9" display="https://github.com/jiushishuai/shop-item.git"/>
+    <hyperlink ref="D11" r:id="rId10" display="https://github.com/96weibin/HarbinTeamProject.git"/>
+    <hyperlink ref="D12" r:id="rId11" display="https://github.com/MisterPrince/WebProject.git"/>
+    <hyperlink ref="D13" r:id="rId12" display="https://github.com/FKzhangye/Mall-project.git"/>
+    <hyperlink ref="D14" r:id="rId13" display="https://github.com/sunlight-chen/shop-center.git"/>
+    <hyperlink ref="D16" r:id="rId14" display="https://github.com/Mannerbu/Wbi.git"/>
+    <hyperlink ref="D15" r:id="rId15" display="https://github.com/yabqi/shop_fsw.git"/>
+    <hyperlink ref="D23" r:id="rId16" display="https://github.com/djx474068077/liangcang.git" tooltip="https://github.com/djx474068077/liangcang.git"/>
+    <hyperlink ref="D18" r:id="rId17" display="https://github.com/Superworwolf/New-Shop.gi" tooltip="https://github.com/Superworwolf/New-Shop.gi"/>
+    <hyperlink ref="D24" r:id="rId18" display="https://github.com/gc18773375617/jeans.git&#10;" tooltip="https://github.com/gc18773375617/jeans.git&#10;"/>
+    <hyperlink ref="D17" r:id="rId19" display="https://github.com/chenzhaohua11/item01" tooltip="https://github.com/chenzhaohua11/item01"/>
+    <hyperlink ref="D22" r:id="rId20" display="https://github.com/YexChen/NiangCang"/>
+    <hyperlink ref="D19" r:id="rId21" display="https://github.com/Kevin464977301/etao.git"/>
+    <hyperlink ref="D20" r:id="rId22" display="https://github.com/2416080431/liangcang.git"/>
+    <hyperlink ref="D21" r:id="rId23" display="https://github.com/BirdWantToFly/yitao.git"/>
+    <hyperlink ref="D30" r:id="rId24" display="https://github.com/zhnagqiaokuan/Web_project " tooltip="https://github.com/zhnagqiaokuan/Web_project "/>
+    <hyperlink ref="D28" r:id="rId25" display="https://github.com/yangbo12138/yangbo12138" tooltip="https://github.com/yangbo12138/yangbo12138"/>
+    <hyperlink ref="D25" r:id="rId26" display="https://github.com/793654672/web_1701-" tooltip="https://github.com/793654672/web_1701-"/>
+    <hyperlink ref="D26" r:id="rId27" display="https://github.com/Dylan1201/web-1707-puchao" tooltip="https://github.com/Dylan1201/web-1707-puchao"/>
+    <hyperlink ref="D27" r:id="rId28" display="https://github.com/Angela894/web-mall"/>
+    <hyperlink ref="D29" r:id="rId29" display="https://github.com/xyf199528/web1707--"/>
+    <hyperlink ref="F26" r:id="rId30" display="http://www.puchao.cc/suning/"/>
+    <hyperlink ref="F12" r:id="rId31" display="http://h6.duchengjiu.top/1707_wangzhiqiang/"/>
+    <hyperlink ref="F8" r:id="rId32" display="http://h6.duchengjiu.top/1707_lishiqiang"/>
+    <hyperlink ref="F9" r:id="rId33" display="http://h6.duchengjiu.top/1707_madongxu/"/>
+    <hyperlink ref="F7" r:id="rId34" display="http://h6.duchengjiu.top/1707_yejiahui/"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>